--- a/biology/Zoologie/Ephippiochthonius_mayorali/Ephippiochthonius_mayorali.xlsx
+++ b/biology/Zoologie/Ephippiochthonius_mayorali/Ephippiochthonius_mayorali.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ephippiochthonius mayorali est une espèce de pseudoscorpions de la famille des Chthoniidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Andalousie en Espagne[1]. Elle se rencontre dans la grotte Cueva del Simarrón à Dalías[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Andalousie en Espagne. Elle se rencontre dans la grotte Cueva del Simarrón à Dalías.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 1,75 mm[3].
-Les mâles mesurent de 1,45 à 2,20 mm et les femelles de 1,89 à 2,35 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 1,75 mm.
+Les mâles mesurent de 1,45 à 2,20 mm et les femelles de 1,89 à 2,35 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jaime G. Mayoral[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jaime G. Mayoral.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Carabajal Márquez, Garcia Carrillo &amp; Rodríguez Fernández, 2001 : Nuevos pseudoscorpiones cavernícolas de la Sierra de Gádor (Almería, España) (Arachnida, Pseudoscorpionida, Chthoniidae). Revista Ibérica de Aracnología, vol. 3, p. 7-15 (texte intégral).</t>
         </is>
